--- a/insert_table_factura.xlsx
+++ b/insert_table_factura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/704d5bd6181c0928/Documentos/Google Drive/Institucional/Tecnológico/Semestre 5/Taller De Bases De Datos/Unidad 2/a. Actividades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{A1F1A3F0-F132-41BF-923F-A2786D05272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D8C3D3-76D5-472B-8D9D-C867C03DA18F}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{A1F1A3F0-F132-41BF-923F-A2786D05272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CBB5805-D1E7-49FD-A4CA-F860B5A6B53D}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-5685" windowWidth="24240" windowHeight="13290" xr2:uid="{0E18EBF7-D256-4EAD-8485-FA62DAFA2EBE}"/>
   </bookViews>
@@ -731,7 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EED2E0-3377-4705-818F-520089F62602}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -787,7 +789,7 @@
         <v>4011</v>
       </c>
       <c r="D3" s="5">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="E3" s="6">
         <v>0.32291666666666669</v>
@@ -1620,7 +1622,7 @@
         <v>4022</v>
       </c>
       <c r="D52" s="5">
-        <v>44489</v>
+        <v>44240</v>
       </c>
       <c r="E52" s="6">
         <v>3.3854166666666701</v>
@@ -1637,7 +1639,7 @@
         <v>4030</v>
       </c>
       <c r="D53" s="5">
-        <v>44494</v>
+        <v>44240</v>
       </c>
       <c r="E53" s="6">
         <v>3.4479166666666701</v>
